--- a/500all/speech_level/speeches_CHRG-114hhrg95224.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time. Welcome to today's hearing, entitled ``Nuclear Energy Innovation and the National Labs.'' I now recognize myself for five minutes for an opening statement.    Good morning, and I've already welcomed you to the Committee Hearing this morning. We appreciate you all being here. Today's hearing will focus on the Department of Energy's National Laboratories' research capabilities, and the working relationship with the private sector to advance nuclear energy technology, both fission and fusion. The Department of Energy owns 17 national laboratories, 16 of which are operated by contractors as federally funded research and development centers. The government owned contractor operated model allows the labs flexibility to think outside of the box when tackling fundamental scientific challenges. The Department of Energy labs grew out of the Manhattan Project, and today provide the critical R&amp;D infrastructure that will enable researchers in academia and the private sector to develop the technologies of tomorrow.    It's pretty clear that the challenges in nuclear science can be quite complicated, and we'll hear more about that from our expert witnesses on our panel today. That said, not being a nuclear physicist or anything of that sort, I'm going to do my best to simplify what we intend to discuss in today's hearing. We hope to get a better understanding of what the DOE labs do, and how their unique research machines and talented group of researches can enable companies to develop new products. This is especially relevant for nuclear energy R&amp;D, which requires large up-front costs, but may lead to revolutionary technology with long term rewards.    Folks, I would add that the United States has a definite national interest in maintaining our position at the forefront of nuclear technology development. Nuclear energy, as you know, is in a class of its own, with the highest energy density of any fuel, and yet yields zero emissions, the big goose egg. It is also highly regulated, often a centerpiece of global, especially national, politics, and is associated with the world's strongest economies. In the United States we invented this technology, and cannot forego, we must not forego the opportunity to export more efficient and safer reactor systems that will mitigate proliferation concerns, while increasing global stability by providing a reliable energy source.    Today we're going to hear from the president of a charitable organization that has co-invested with a DOE lab to advance a specific nuclear fuel treatment process to convert nuclear waste into a useable fuel. We will also hear from the Argonne National Lab, which invented this fuel treatment process, as well as private companies developing fusion, and advanced fission reactors. Needless to say, this is a unique panel of witnesses. I thank the witnesses for participating in today's hearing, and I look forward to their testimony.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, and--for holding this hearing, and thank you to our witnesses for agreeing to participate this morning.    For decades the federal government has provided critical support for energy research and development. From solar, to wind energy, to natural gas recovery, many of the technologies allowing us to transition toward a clean energy economy, and creating entire new industries, would not be possible without Federal support, and the same is true for nuclear energy. This morning we will listen to you all regarding the Federal role in developing the next generation of nuclear energy technologies.    I'm particularly pleased that, as part of this discussion, we will learn more about innovative future fusion energy concepts, concepts that have the potential to accelerate the development and deployment of commercial fusion reactors dramatically. Fusion holds the promise of providing a practically limitless supply of clean energy to the world. In a sense, we're already dependent upon it, because the energy that we get from that fusion reactor called the sun, in the sky, is essential to the existence of life on Earth. It's proving difficult for people to replicate what the stars are able to do through sheer gravity, but based upon several developments in recent years that we'll be hearing about in part today, I am confident that we'll get there, and I hope far sooner than people may realize.    I do have my reservations about fission, another subject that we'll be discussing today. Not about the physical process itself, but the applicability of that to our energy needs. I have described fission, in a sense, a failed technology. There is a problem with spent fuel that doesn't seem to have a solution after many decades of consideration. We've had three nuclear disasters worldwide. But the answer to that may not be the German solution of simply scrapping. The answer to that may be to do further research, and try to find solutions to these problems.    In any event, I'm a strong supporter of fusion energy research, which is entirely different, in terms of its impact and potential problems, than fission. I believe that now is the time to build and operate experiments that are capable of demonstrating that man-made fusion systems can consistently produce far more energy than it takes to fuel them. I'm eager to learn about both the costs and the benefits of a wide range of new nuclear technologies, and I also look forward to hearing how nuclear energy can play an important role in developing a modern clean energy economy. Again, I want to thank you all, our witnesses, for providing your insights today, and I look forward to hearing from the Chairman and working with the Chairman on nuclear energy issues moving forward. Thank you. I yield back the remainder of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman. In today's hearing we'll examine opportunities for advances in nuclear fission and fusion energy technologies. We will hear from the Associate Laboratory Director at Argonne National Lab, the home of the world's first reactor to demonstrate a sustainable fission chain reaction. Argonne National Lab is responsible for foundational research and development in nuclear energy that has led to many operating reactors and reactor concepts that will be discussed today. These include the integral fast reactor, and pyroprocessing. We will also hear from witnesses who represent private companies and a charitable organization, all of whom have invested in the development of advanced fission or fusion reactor designs.    Nuclear energy provides reliable zero emission power. This technology represents one of the most promising areas for growth and innovation to increase economic prosperity and lower the cost of electricity over time. This will help keep the United States globally competitive. The Department of Energy's national laboratories provide vital opportunities for the private sector to invest in innovative energy technologies. This includes its open access user facilities, which are one of a kind machines that allow researchers to investigate fundamental scientific questions. These facilities enable a wide array of researchers from academia, defense, and the private sector to develop new technologies without favoring one type of design. This represents a better approach than simply picking winners and losers through energy subsidies.    DOE's labs also provide the fundamental research capabilities that lead to scientific publications or proprietary research. In this public/private partnership, private companies take on the risk for commercializing technology, while the government enables researchers to conduct specialized research that would not be possible without Federal support. DOE's national labs keep America's best and brightest scientists working on groundbreaking research here in the United States, instead of moving to research projects overseas.    I am hopeful that today's hearing can demonstrate the importance of foundational research capabilities in the national labs that will lead to the next generation of nuclear energy technology. Inevitably, and I hope sooner rather than later, all Americans will benefit from this research.    Now, Mr. Chairman, before I yield back, I just want to apologize to our witnesses, I have another Subcommittee meeting of another Committee that I need to go to briefly, and then hope to return, so--but do look forward to meeting and hearing what the witnesses have to say today.</t>
   </si>
   <si>
@@ -88,18 +79,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Batten</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Batten. Yeah.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Our next witness is Mr. Nathan Gilliland, okay, Chief Executive Officer of General Fusion. Before joining General Fusion, Mr. Gilliland served as an entrepreneur-in-residence with Kliner, Perkins, Caufield, and Byers, one of the world's largest venture capital firms. In addition, he was the president and co-founder of Harvest Power, a renewable energy company that turns organic waste into natural gas and electricity. Mr. Gilliland received his Bachelor's Degree in political science from the University of California, Berkeley. Welcome, Mr. Gilliland.    Our final witness today is Dr. John Parmentola, Senior Vice President of General Atomics' Energy and Advanced Concepts Group. Dr. Parmentola oversees a team of nearly 475 from over 90 institutions worldwide who lead the way in international nuclear fusion and fission research and development. Before joining General Atomics, Dr. Parmentola served as Director of Research and Laboratory Management for the United States Army. In addition, he served as Science and Technology Advisor to the Chief Financial Officer of the Department of Energy. Dr. Parmentola received his Bachelor's Degree in physics from Polytechnic Institute of Brooklyn, and his Ph.D. in physics from MIT. Welcome, Dr. Parmentola.    We're going to turn to our witnesses now, and you all are recognized for five minutes. We ask that you keep your testimony to five minutes. Dr. Peters, we'll start with you.</t>
   </si>
   <si>
-    <t>Peters</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Peters. Good morning. Thank you, Mr. Chairman. I would like to thank Chairman Smith, Chairman Weber, Ranking Member Grayson, Congressman Lipinski, Congressman Hultgren, and the other distinguished members of the Subcommittee for your invitation to testify here today on this important subject. My name is Mark Peters, and I am the Associate Laboratory Director for Energy and Global Security at Argonne National Laboratory. And, Mr. Chairman, I've prepared a detailed written testimony that I request be submitted for the record, and I'll summarize it here.</t>
   </si>
   <si>
@@ -118,18 +103,12 @@
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Batten.    Mr. Gilliland, you're recognized.</t>
   </si>
   <si>
-    <t>Gilliland</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gilliland. Chairman Weber, Ranking Member Grayson, Chairman Smith, thank you very much for the opportunity to testify today about the emergence of new innovative fusion energy concepts, and the importance of governmental support in working with U.S. labs. My name's Nathan Gilliland, Chief Executive Officer of General Fusion, one of the leading private fusion energy companies. I'll make five point--key points today, and have done so in my written statement in more detail, which I would like to submit to the record.    First, I would echo what Ranking Member Grayson said. The game changing nature of fusion energy bears repeating. It's energy production that is safe, clean, and abundant. In a fusion reaction, one kilogram of hydrogen is equivalent to ten million kilograms of coal. It's the energy density comment that you made earlier. Humanity would have abundant energy for millions of years. There's also no long lived radioactive waste, no chance of meltdown in fusion reactions. The benefits to energy security can hardly be overstated.    Second, U.S. support for magnetic fusion programs like ITER, and inertial confinement programs like NIF, have created an enormously beneficial source of research. ITER and NIF have justifiably been the highlights of the U.S. fusion energy framework, and developed key insights into plasma behavior, material science, simulation codes, and many others. These programs should continue to be supported.    Third, because of this historical research, innovation in alternative pathways to fusion have accelerated. These alternative approaches, both in private companies and in labs and university, offer potentially faster and less expensive concepts, and demonstrable progress is being made, both in these labs, universities, and the private companies. Of particular note, work at Sandia, University of Washington, and Los Alamos are worth noting, as well as the three leading private companies, Tri-Alpha Energy, which is based in Southern California, Helion, which is based in Seattle, and ourselves, General Fusion. The progress of these alternative concepts was featured last summer in Science and Nature magazines. Novel fuels are being tested, new simulation tools developed, and we're all setting records for the stability of our plasma, so real progress is being made.    Increased commercial viability, lower cost power, and faster progress are common threads in these alternative fusion concepts. Alternative approaches are reducing costs by applying existing industrial technologies to the challenge of fusion, primarily avoiding costly large lasers, or costly superconducting magnets. Some have novel ways to protect the fusion reactor from neutrons, others have simpler ways to convert heat into electricity, but, of course, there are no silver bullets. These alternative approaches tend to be less researched and studied, and are simply newer. The physics have not been fully explored. But we would argue the viability and efficacy of these alternative approaches can be demonstrated for less money. Some will show rapid progress, and others will not, but, dollar for dollar, progress or failure can be demonstrated much more quickly.    Fourth, though the majority of fusion research has been publicly funded, there is a place, and an important place, for private companies who can build on previous research, and potentially innovate faster. The Human Genome Project is a great analogue, and a great example. The NIH built a core of research that was very strong, and from this private industry was able to efficiently and rapidly innovate to sequence the genome. We see parallels in fusion energy. World leading historical research is being done at labs and universities, and has led to rapid innovation. And just like every energy industry, oil and gas, solar, wind, there will be multiple approaches that succeed in fusion. It's not a winner-take-all industry.    Fifth, and finally, going forward we'd like to see more open innovation and information sharing across private industry labs and universities. For example, we all use computer simulation. It's a very important tool for us. We'd like to see co-development of simulation codes, more sharing of simulation codes. Another thing we'd like to see is greater emphasis on exchanges of physicists and Ph.D.'s across private industry and government labs. This leads to better sharing of historical research, current research, and the private sector would absolutely put resources into doing this. And labs and universities can help here at no cost to them.    Ultimately, more cooperation between government supported efforts and private industry can only accelerate progress. There is no value in silence. Let's push for more private/public partnerships, as Dr. Peters mentioned, and I'm sure Dr. Parmentola will as well. Let's push for more private/public partnerships to share data, build faster, and accelerate progress. The world needs fusion, and the faster the better. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Gilliland.    Dr. Parmentola, you're recognized.</t>
   </si>
   <si>
-    <t>Parmentola</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Parmentola. Good morning. Thank you, Chairman Weber, Ranking Member Grayson, and other members of the Subcommittee for holding this hearing on this important subject. I believe, as many others do, that it is important to the future of national security, energy security, and environmental quality of the United States that ample supplies of competitively priced nuclear energy are available.    Unfortunately, it appears that nuclear energy is dying in the U.S. There are few new plants being built, several have closed recently, and most of the 99 existing plants will be closed down within the next 40 years. To place this in context, last year nuclear was 20 percent of the electricity consumed by Americans, who paid 80 billion for it. We believe this death spiral can be avoided, but it'll require active involvement by the U.S. Government.    The energy market is indicating that existing nuclear power technology is not commercially viable. For nuclear power to play any future role, the U.S. will need new safer nuclear power technologies that will produce significantly cheaper electricity. However, the private sector will not be able to develop this on its own. The investments required are very large, they are risky, and, in any event, will take more than a decade before they might yield any revenue from electricity production, and even longer to yield any profit. As these new options are developed, and private firms begin to see their way to risk reduction and making profits, private investment will increase, the government will be able to withdraw, and the market will decide which would be commercially viable.    Let me now discuss GA's interest in a new advanced test reactor. We have a new reactor concept that needs a testing facility. We call it EM-2, and we designed it to address the four most prominent concerns with nuclear power, its safety, its cost, its waste, and its proliferation risk. We believe it is a potential breakthrough technology for the United States, however, research is required to realize it.    To develop EM-2, a compact gas cooled fast reactor, we looked at what physics indicates we must do. One, we must go to higher power densities through a compact reactor core using fast neutrons. Two, we must go to higher temperatures so a higher percentage of the heat produced is turned into electricity. By doing this, we can make the same amount of electricity in a smaller reactor, small enough that it could be made in a factory and shipped by truck to a site for deployment. We believe we could increase the efficiency of power production from percentages today, in the low 30s, to the lower 50s.    The bottom line is we believe that we could reduce the cost of electricity up to 40 percent below that of existing nuclear reactors, and reduce their waste by up to 80 percent. But to do this, we have to develop new materials what will be able to endure the higher temperatures, and endure the more energetic and neutron rich radiation environment inside the reactor. We need a new testing facility with high performance characteristics in which to do this research work. But there are also a number of other companies and national ads that are advocating the use of fast neutrons, and going to high temperatures, albeit with different advanced reactor designs. These also require a new testing facility that conduct tests in, say, three years that would show what happens to these materials in an actual advanced reactor during a period of 30 years.    It would not make business sense for any company, or even all interested companies together, to pay for the capital costs to construct such a facility, given the large investment, the risks, and the very long lead times involved for a return on investment. Currently there is no U.S. facility with the requisite high performance characteristics to do this type of research. The best we have are the advanced test reactor at Idaho National Laboratory, and the high flux isotope reactor at Oak Ridge, but neither of these is appropriate for a number of reasons. The best in the world is in Russia, BOR-60, but this is being shut down soon for other reasons.    In any event, it would seem odd to develop such a national security technology in Russia. Therefore, we suggest you consider building such a facility in the United States. It would be called the Versatile Advanced Test Reactor. It would be a highly neutron rich fast reactor capable also of producing thermal neutrons. We like versatile because it should be designed in such a way that it could be used to test all new reactor concepts, whether they involve molten salt, a liquid metal reactor, a liquid bismuth reactor, a gas reactor, or even light water reactor.    The Versatile Advanced Test Reactor would be a user facility in the same way that the DOE Office of Science managers other highly successful facilities. It would contribute to the public good by providing the development of future nuclear energy options. This is an excellent example of what the government should do because industry cannot, or will not, do it. The U.S. has a great opportunity to lead the world, and give nuclear power its best chance to become economically viable. This Committee could start by enacting a law calling for a study to be done, with industry participation, to determine a design for such a reactor, what its capabilities would be, and what it might cost. We believe that if the U.S. were to build such a test facility, it would be key to the development of nuclear reactors that really could spark a true renaissance of nuclear power in the United States.    Thank you for inviting me to share our views, and for your interest in finding ways to sustain an extremely important future energy source for our nation. Thank you.</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. Years ago I used to believe that the environmentalist community was being, how do you say, alarmist when it came to nuclear energy. And I have seen a lot of alarmism come out of the environmental community that has not been accurate, but let me just say that in the case of nuclear energy, as time has gone on, and more information has been available, I think the environmental community over the years has been on target on this issue. The fact is that nuclear energy, as we are now using it, is very dangerous, and as now there are--there's leftover waste to deal with with the way we produce nuclear energy today.    So that's a big concession for me. In the number of debates that I had with environmental activities, they were right about that. But we are capable of technologically meeting those challenges that were brought up. And--whether it's leftover waste, or whether it's a safer way of producing nuclear energy that wouldn't have the same type of dangers associated with our current plants, we can do that.    I especially want to acknowledge our friends at General Atomics, who have been in the forefront, and spent a lot of their own money over the years trying to develop a new and next generation of nuclear energy that is safe, and won't have the massive leftover waste problem for decades, if not centuries to come.    I--but the government has to play a role in this as well. If we're going to have the benefits of nuclear energy, and--because private companies can't make this jump on their own, but once that jump is made, our private companies will be able to then, on their own, to build these next generation of nuclear power plants.    So I would like to go on the record, absolutely, saying this idea of having an open access facility is perhaps the most important thing we can do to provide America's long term energy interests, because it doesn't mean that just General Atomics, or any other company that is investing in this, and looking down this road. It will be available to all of those approaches. And, after his facility is available, we will know which is the best one to go with, which is the best way to go.    So this is a--what is not a good use of our money, however, is something that is aimed at fusion, rather than fission. And we can do these fission reactors--with all due respect to the last witness, boy, now we know it's possible. We've spent I don't know how many billions of dollars to find that it's possible? No. After spending billions of dollars, we should actually be at a point where we can--not only is it possible, but we'll have it ready within two or three years, whatever that is. But we're nowhere near that with fusion. But we do know that if we focus on this next generation of fission reactors, especially modular fission reactors, we actually can do it, and do the job, rather than just know that it's possible.    Let me note that we have spent--I would like to ask my friend from General Atomics, the--in what--the actual configuration of the next generation of nuclear reactor that you're working on, the people in Japan were sold a bill of goods that what they were given was totally safe. And now what happens, we, you know, we've seen this catastrophe in Japan. Would the model you're working on, and perhaps the other models that people are working on, would that protect us from that type of situation they have in Japan?</t>
   </si>
   <si>
@@ -286,9 +262,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. Thank you for holding this hearing, and I would like to say, I do agree with Mr. Rohrabacher, except for I do believe in global climate change, but I think together we need to work to bring, you know, nuclear energy--it's something that we have to, first of all, maintain America's leadership on the innovation when it comes to nuclear energy and nuclear technologies, and we need to transition to advanced nuclear technologies, like fast reactors. And I hope to get language in the Competes bill supporting advanced nuclear reactor test facilities. So I think it's very important that we do move ahead, and research is critical, and that's what we're here to talk about.    For Dr. Peters, Illinois has been a leader in nuclear reactors since the first reactor was developed by Enrico Fermi at Met Lab, now renamed Argonne. Thank you for your leadership in keeping Argonne, and Illinois, a leader in nuclear energy innovation. Moving forward, I want to ask, what are Argonne's research and development priorities, and how do these priorities compliment work at other national labs, and fit into the DOE's strategic direction?</t>
   </si>
   <si>
@@ -310,9 +283,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman. Thank you to all of our witnesses. Dr. Peters, it's always so good to see you. Certainly love being able to tell the great story of all the good things that are happening in Illinois. Good news for the rest of the Committee is having you here means they don't have to listen to me, and they can be much better informed hearing from you, so----</t>
   </si>
   <si>
@@ -358,9 +328,6 @@
     <t>412514</t>
   </si>
   <si>
-    <t>Eric Swalwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Chair. I represent Lawrence Livermore National Laboratory and Sandia National Laboratory in Livermore, California, in the 15th District, and appreciate our witnesses here, and also Dr. Peters, what--the work you do at Argonne, is that correct?    My question is for Mr. Gilliland. And--in your testimony, you're pretty forceful on the potential power of fusion energy, and--for example, you write that the game changing nature of fusion energy bears repeating, energy production that is safe, clean, and abundant that would change the landscape of energy forever, and greatly enhance energy security.    At the two national laboratories I work--that I represent, they do a lot of work in fusion energy. For example, at Lawrence Livermore, they have the National Ignition Facility, the largest inertial fusion facility in the world, which is an amazing research tool, which has produced a wealth of information, but its primary goal right now is to assist in the maintenance of the nuclear weapon stockpile. However, we have long term hopes that it can be a sustainable energy source in the future.    So, keeping that in mind--and Representative Lofgren, who's on this Committee as well, she has worked with me on supporting fusion--but keeping that in mind, do you think, Mr. Gilliland, that the federal government is spending enough to support fusion energy research, and if not, do you have a dollar amount in mind as to how much more we should spend? And would it be helpful to have an actually dedicated funding source for research into all different types of fusion, including inertial, for energy applications?</t>
   </si>
   <si>
@@ -383,9 +350,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. I thank the gentleman. The gentleman from Illinois, Mr. Foster, is recognized.</t>
-  </si>
-  <si>
-    <t>Foster</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Foster. Thank you, Mr. Chairman, and I appreciate the opportunity to attend this, despite not actually being formally on this Subcommittee. The--let's see. First question--first I would like to say that I'm a big fan of turning up research in this field. You know, the payoff if one of these comes up with a home run, and a really viable zero carbon energy source for our world, is enormous.    But ultimately, you know, the thing that I struggle with is the business of design studies that look at projected costs of electricity, which is ultimately the endpoint on this. And so the difficulty you get into there is you're comparing technologies with different levels of maturity. And, you know, ultimately we're resource constrained. You know, we've now decided to make what's--looks like a--between a $3 and $4 billion bet on tokamak fusion, you know, leveraging that to roughly 10 times that amount offshore. And, you know, we may or may not decide to do the same sort of leveraging in making a U.S. investment into offshore fission technologies that are being developed.    And so--but ultimately what we're looking for is the cheapest way of making zero carbon electricity. And--so there is certainly a role in doing design studies, just say pretend the technology works, and what would the cost of electricity be, if it all works according to your dreams? You know, there are big dangers there, because you can lose that bet, and--or find that, to make it work, you have to add a lot of costs to things.    But how do we, you know, how should Congress think about and handle that? Is this best left to separate--to committees? You know, the problem is that committees--all--knowledgeable people on committees are always composed of advocates for their technology, and you can balance the committee in different ways and get whatever answer you want, depending on how you choose to balance those committees.    And so if--so I guess my question is do you think that we're putting enough effort into the sort of design studies that I'm talking about, where you say, just pretend the technology works, does it ever have a chance of being cheaper? You know, this is something that's often talked about, for example, in terms of laser driven fusion, that if you just look at the wall power efficiency, you know, everything you'll have to do to get the compression, I guess--I--sorry I missed your presentation, Mr. Gilliland, but, from what I understand, your technology, you anticipate a higher efficiency, wall plug efficiency, in terms of getting the fusion to happen. And that's a, you know, that's a real argument when you look at the final thing.    But I--my question is, are we putting enough effort into that, and the right kind of effort, into these design--these studies of what the theoretical cost of electricity should be, or are--is--are things just so far away, and such a big spectrum in their R&amp;D readiness to make those--to be able to make those sensible comparisons? So anyone wants to comment on--yeah, Dr. Parmentola.</t>
@@ -949,11 +913,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -975,11 +937,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -999,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1027,11 +985,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1051,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1079,11 +1033,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1103,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1131,11 +1081,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1155,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1183,11 +1129,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1207,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1235,11 +1177,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1259,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1287,11 +1225,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1311,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1339,11 +1273,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1363,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1391,11 +1321,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1415,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1443,11 +1369,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1467,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1495,11 +1417,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1519,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1547,11 +1465,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1571,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1599,11 +1513,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1623,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1651,11 +1561,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1675,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1703,11 +1609,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1727,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1755,11 +1657,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1779,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1807,11 +1705,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1831,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1859,11 +1753,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1883,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1911,11 +1801,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1935,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1963,11 +1849,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1987,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2015,11 +1897,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2039,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2067,11 +1945,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2091,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2119,11 +1993,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2143,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2171,11 +2041,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2195,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2221,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2247,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2273,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2299,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2325,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2351,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2377,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2403,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2431,11 +2281,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2455,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2481,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2507,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2533,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2559,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2585,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2611,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2637,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2663,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>79</v>
-      </c>
-      <c r="H68" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2691,11 +2521,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2715,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>90</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2741,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2767,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2793,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2819,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s">
-        <v>90</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2847,11 +2665,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2871,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2899,11 +2713,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2923,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2949,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2975,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3001,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3027,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3053,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3079,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>97</v>
-      </c>
-      <c r="G84" t="s">
-        <v>98</v>
-      </c>
-      <c r="H84" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3105,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3131,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3157,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3183,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3211,11 +3001,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3235,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
-      </c>
-      <c r="G90" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3261,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3287,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
-      </c>
-      <c r="G92" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3313,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3339,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3365,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3391,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3419,11 +3193,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3443,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3469,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3495,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3521,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3547,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3573,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3599,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3625,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3651,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3677,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3705,11 +3457,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3729,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3755,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3781,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3807,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3833,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3859,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3885,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3911,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3939,11 +3673,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3963,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3991,11 +3721,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4015,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4043,11 +3769,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4067,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4093,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4121,11 +3841,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4145,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4173,11 +3889,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4197,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4225,11 +3937,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4249,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4277,11 +3985,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4301,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4329,11 +4033,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4353,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4379,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4405,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4431,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4457,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4483,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4509,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4535,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4561,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4587,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4613,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4641,11 +4321,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4665,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4693,11 +4369,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4717,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4743,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4769,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4795,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4821,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4847,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4873,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4901,11 +4561,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95224.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Weber. Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time. Welcome to today's hearing, entitled ``Nuclear Energy Innovation and the National Labs.'' I now recognize myself for five minutes for an opening statement.    Good morning, and I've already welcomed you to the Committee Hearing this morning. We appreciate you all being here. Today's hearing will focus on the Department of Energy's National Laboratories' research capabilities, and the working relationship with the private sector to advance nuclear energy technology, both fission and fusion. The Department of Energy owns 17 national laboratories, 16 of which are operated by contractors as federally funded research and development centers. The government owned contractor operated model allows the labs flexibility to think outside of the box when tackling fundamental scientific challenges. The Department of Energy labs grew out of the Manhattan Project, and today provide the critical R&amp;D infrastructure that will enable researchers in academia and the private sector to develop the technologies of tomorrow.    It's pretty clear that the challenges in nuclear science can be quite complicated, and we'll hear more about that from our expert witnesses on our panel today. That said, not being a nuclear physicist or anything of that sort, I'm going to do my best to simplify what we intend to discuss in today's hearing. We hope to get a better understanding of what the DOE labs do, and how their unique research machines and talented group of researches can enable companies to develop new products. This is especially relevant for nuclear energy R&amp;D, which requires large up-front costs, but may lead to revolutionary technology with long term rewards.    Folks, I would add that the United States has a definite national interest in maintaining our position at the forefront of nuclear technology development. Nuclear energy, as you know, is in a class of its own, with the highest energy density of any fuel, and yet yields zero emissions, the big goose egg. It is also highly regulated, often a centerpiece of global, especially national, politics, and is associated with the world's strongest economies. In the United States we invented this technology, and cannot forego, we must not forego the opportunity to export more efficient and safer reactor systems that will mitigate proliferation concerns, while increasing global stability by providing a reliable energy source.    Today we're going to hear from the president of a charitable organization that has co-invested with a DOE lab to advance a specific nuclear fuel treatment process to convert nuclear waste into a useable fuel. We will also hear from the Argonne National Lab, which invented this fuel treatment process, as well as private companies developing fusion, and advanced fission reactors. Needless to say, this is a unique panel of witnesses. I thank the witnesses for participating in today's hearing, and I look forward to their testimony.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, and--for holding this hearing, and thank you to our witnesses for agreeing to participate this morning.    For decades the federal government has provided critical support for energy research and development. From solar, to wind energy, to natural gas recovery, many of the technologies allowing us to transition toward a clean energy economy, and creating entire new industries, would not be possible without Federal support, and the same is true for nuclear energy. This morning we will listen to you all regarding the Federal role in developing the next generation of nuclear energy technologies.    I'm particularly pleased that, as part of this discussion, we will learn more about innovative future fusion energy concepts, concepts that have the potential to accelerate the development and deployment of commercial fusion reactors dramatically. Fusion holds the promise of providing a practically limitless supply of clean energy to the world. In a sense, we're already dependent upon it, because the energy that we get from that fusion reactor called the sun, in the sky, is essential to the existence of life on Earth. It's proving difficult for people to replicate what the stars are able to do through sheer gravity, but based upon several developments in recent years that we'll be hearing about in part today, I am confident that we'll get there, and I hope far sooner than people may realize.    I do have my reservations about fission, another subject that we'll be discussing today. Not about the physical process itself, but the applicability of that to our energy needs. I have described fission, in a sense, a failed technology. There is a problem with spent fuel that doesn't seem to have a solution after many decades of consideration. We've had three nuclear disasters worldwide. But the answer to that may not be the German solution of simply scrapping. The answer to that may be to do further research, and try to find solutions to these problems.    In any event, I'm a strong supporter of fusion energy research, which is entirely different, in terms of its impact and potential problems, than fission. I believe that now is the time to build and operate experiments that are capable of demonstrating that man-made fusion systems can consistently produce far more energy than it takes to fuel them. I'm eager to learn about both the costs and the benefits of a wide range of new nuclear technologies, and I also look forward to hearing how nuclear energy can play an important role in developing a modern clean energy economy. Again, I want to thank you all, our witnesses, for providing your insights today, and I look forward to hearing from the Chairman and working with the Chairman on nuclear energy issues moving forward. Thank you. I yield back the remainder of my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman. In today's hearing we'll examine opportunities for advances in nuclear fission and fusion energy technologies. We will hear from the Associate Laboratory Director at Argonne National Lab, the home of the world's first reactor to demonstrate a sustainable fission chain reaction. Argonne National Lab is responsible for foundational research and development in nuclear energy that has led to many operating reactors and reactor concepts that will be discussed today. These include the integral fast reactor, and pyroprocessing. We will also hear from witnesses who represent private companies and a charitable organization, all of whom have invested in the development of advanced fission or fusion reactor designs.    Nuclear energy provides reliable zero emission power. This technology represents one of the most promising areas for growth and innovation to increase economic prosperity and lower the cost of electricity over time. This will help keep the United States globally competitive. The Department of Energy's national laboratories provide vital opportunities for the private sector to invest in innovative energy technologies. This includes its open access user facilities, which are one of a kind machines that allow researchers to investigate fundamental scientific questions. These facilities enable a wide array of researchers from academia, defense, and the private sector to develop new technologies without favoring one type of design. This represents a better approach than simply picking winners and losers through energy subsidies.    DOE's labs also provide the fundamental research capabilities that lead to scientific publications or proprietary research. In this public/private partnership, private companies take on the risk for commercializing technology, while the government enables researchers to conduct specialized research that would not be possible without Federal support. DOE's national labs keep America's best and brightest scientists working on groundbreaking research here in the United States, instead of moving to research projects overseas.    I am hopeful that today's hearing can demonstrate the importance of foundational research capabilities in the national labs that will lead to the next generation of nuclear energy technology. Inevitably, and I hope sooner rather than later, all Americans will benefit from this research.    Now, Mr. Chairman, before I yield back, I just want to apologize to our witnesses, I have another Subcommittee meeting of another Committee that I need to go to briefly, and then hope to return, so--but do look forward to meeting and hearing what the witnesses have to say today.</t>
   </si>
   <si>
@@ -79,12 +100,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Batten</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Batten. Yeah.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Our next witness is Mr. Nathan Gilliland, okay, Chief Executive Officer of General Fusion. Before joining General Fusion, Mr. Gilliland served as an entrepreneur-in-residence with Kliner, Perkins, Caufield, and Byers, one of the world's largest venture capital firms. In addition, he was the president and co-founder of Harvest Power, a renewable energy company that turns organic waste into natural gas and electricity. Mr. Gilliland received his Bachelor's Degree in political science from the University of California, Berkeley. Welcome, Mr. Gilliland.    Our final witness today is Dr. John Parmentola, Senior Vice President of General Atomics' Energy and Advanced Concepts Group. Dr. Parmentola oversees a team of nearly 475 from over 90 institutions worldwide who lead the way in international nuclear fusion and fission research and development. Before joining General Atomics, Dr. Parmentola served as Director of Research and Laboratory Management for the United States Army. In addition, he served as Science and Technology Advisor to the Chief Financial Officer of the Department of Energy. Dr. Parmentola received his Bachelor's Degree in physics from Polytechnic Institute of Brooklyn, and his Ph.D. in physics from MIT. Welcome, Dr. Parmentola.    We're going to turn to our witnesses now, and you all are recognized for five minutes. We ask that you keep your testimony to five minutes. Dr. Peters, we'll start with you.</t>
   </si>
   <si>
+    <t>Peters</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Peters. Good morning. Thank you, Mr. Chairman. I would like to thank Chairman Smith, Chairman Weber, Ranking Member Grayson, Congressman Lipinski, Congressman Hultgren, and the other distinguished members of the Subcommittee for your invitation to testify here today on this important subject. My name is Mark Peters, and I am the Associate Laboratory Director for Energy and Global Security at Argonne National Laboratory. And, Mr. Chairman, I've prepared a detailed written testimony that I request be submitted for the record, and I'll summarize it here.</t>
   </si>
   <si>
@@ -103,12 +130,18 @@
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Batten.    Mr. Gilliland, you're recognized.</t>
   </si>
   <si>
+    <t>Gilliland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gilliland. Chairman Weber, Ranking Member Grayson, Chairman Smith, thank you very much for the opportunity to testify today about the emergence of new innovative fusion energy concepts, and the importance of governmental support in working with U.S. labs. My name's Nathan Gilliland, Chief Executive Officer of General Fusion, one of the leading private fusion energy companies. I'll make five point--key points today, and have done so in my written statement in more detail, which I would like to submit to the record.    First, I would echo what Ranking Member Grayson said. The game changing nature of fusion energy bears repeating. It's energy production that is safe, clean, and abundant. In a fusion reaction, one kilogram of hydrogen is equivalent to ten million kilograms of coal. It's the energy density comment that you made earlier. Humanity would have abundant energy for millions of years. There's also no long lived radioactive waste, no chance of meltdown in fusion reactions. The benefits to energy security can hardly be overstated.    Second, U.S. support for magnetic fusion programs like ITER, and inertial confinement programs like NIF, have created an enormously beneficial source of research. ITER and NIF have justifiably been the highlights of the U.S. fusion energy framework, and developed key insights into plasma behavior, material science, simulation codes, and many others. These programs should continue to be supported.    Third, because of this historical research, innovation in alternative pathways to fusion have accelerated. These alternative approaches, both in private companies and in labs and university, offer potentially faster and less expensive concepts, and demonstrable progress is being made, both in these labs, universities, and the private companies. Of particular note, work at Sandia, University of Washington, and Los Alamos are worth noting, as well as the three leading private companies, Tri-Alpha Energy, which is based in Southern California, Helion, which is based in Seattle, and ourselves, General Fusion. The progress of these alternative concepts was featured last summer in Science and Nature magazines. Novel fuels are being tested, new simulation tools developed, and we're all setting records for the stability of our plasma, so real progress is being made.    Increased commercial viability, lower cost power, and faster progress are common threads in these alternative fusion concepts. Alternative approaches are reducing costs by applying existing industrial technologies to the challenge of fusion, primarily avoiding costly large lasers, or costly superconducting magnets. Some have novel ways to protect the fusion reactor from neutrons, others have simpler ways to convert heat into electricity, but, of course, there are no silver bullets. These alternative approaches tend to be less researched and studied, and are simply newer. The physics have not been fully explored. But we would argue the viability and efficacy of these alternative approaches can be demonstrated for less money. Some will show rapid progress, and others will not, but, dollar for dollar, progress or failure can be demonstrated much more quickly.    Fourth, though the majority of fusion research has been publicly funded, there is a place, and an important place, for private companies who can build on previous research, and potentially innovate faster. The Human Genome Project is a great analogue, and a great example. The NIH built a core of research that was very strong, and from this private industry was able to efficiently and rapidly innovate to sequence the genome. We see parallels in fusion energy. World leading historical research is being done at labs and universities, and has led to rapid innovation. And just like every energy industry, oil and gas, solar, wind, there will be multiple approaches that succeed in fusion. It's not a winner-take-all industry.    Fifth, and finally, going forward we'd like to see more open innovation and information sharing across private industry labs and universities. For example, we all use computer simulation. It's a very important tool for us. We'd like to see co-development of simulation codes, more sharing of simulation codes. Another thing we'd like to see is greater emphasis on exchanges of physicists and Ph.D.'s across private industry and government labs. This leads to better sharing of historical research, current research, and the private sector would absolutely put resources into doing this. And labs and universities can help here at no cost to them.    Ultimately, more cooperation between government supported efforts and private industry can only accelerate progress. There is no value in silence. Let's push for more private/public partnerships, as Dr. Peters mentioned, and I'm sure Dr. Parmentola will as well. Let's push for more private/public partnerships to share data, build faster, and accelerate progress. The world needs fusion, and the faster the better. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Gilliland.    Dr. Parmentola, you're recognized.</t>
   </si>
   <si>
+    <t>Parmentola</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Parmentola. Good morning. Thank you, Chairman Weber, Ranking Member Grayson, and other members of the Subcommittee for holding this hearing on this important subject. I believe, as many others do, that it is important to the future of national security, energy security, and environmental quality of the United States that ample supplies of competitively priced nuclear energy are available.    Unfortunately, it appears that nuclear energy is dying in the U.S. There are few new plants being built, several have closed recently, and most of the 99 existing plants will be closed down within the next 40 years. To place this in context, last year nuclear was 20 percent of the electricity consumed by Americans, who paid 80 billion for it. We believe this death spiral can be avoided, but it'll require active involvement by the U.S. Government.    The energy market is indicating that existing nuclear power technology is not commercially viable. For nuclear power to play any future role, the U.S. will need new safer nuclear power technologies that will produce significantly cheaper electricity. However, the private sector will not be able to develop this on its own. The investments required are very large, they are risky, and, in any event, will take more than a decade before they might yield any revenue from electricity production, and even longer to yield any profit. As these new options are developed, and private firms begin to see their way to risk reduction and making profits, private investment will increase, the government will be able to withdraw, and the market will decide which would be commercially viable.    Let me now discuss GA's interest in a new advanced test reactor. We have a new reactor concept that needs a testing facility. We call it EM-2, and we designed it to address the four most prominent concerns with nuclear power, its safety, its cost, its waste, and its proliferation risk. We believe it is a potential breakthrough technology for the United States, however, research is required to realize it.    To develop EM-2, a compact gas cooled fast reactor, we looked at what physics indicates we must do. One, we must go to higher power densities through a compact reactor core using fast neutrons. Two, we must go to higher temperatures so a higher percentage of the heat produced is turned into electricity. By doing this, we can make the same amount of electricity in a smaller reactor, small enough that it could be made in a factory and shipped by truck to a site for deployment. We believe we could increase the efficiency of power production from percentages today, in the low 30s, to the lower 50s.    The bottom line is we believe that we could reduce the cost of electricity up to 40 percent below that of existing nuclear reactors, and reduce their waste by up to 80 percent. But to do this, we have to develop new materials what will be able to endure the higher temperatures, and endure the more energetic and neutron rich radiation environment inside the reactor. We need a new testing facility with high performance characteristics in which to do this research work. But there are also a number of other companies and national ads that are advocating the use of fast neutrons, and going to high temperatures, albeit with different advanced reactor designs. These also require a new testing facility that conduct tests in, say, three years that would show what happens to these materials in an actual advanced reactor during a period of 30 years.    It would not make business sense for any company, or even all interested companies together, to pay for the capital costs to construct such a facility, given the large investment, the risks, and the very long lead times involved for a return on investment. Currently there is no U.S. facility with the requisite high performance characteristics to do this type of research. The best we have are the advanced test reactor at Idaho National Laboratory, and the high flux isotope reactor at Oak Ridge, but neither of these is appropriate for a number of reasons. The best in the world is in Russia, BOR-60, but this is being shut down soon for other reasons.    In any event, it would seem odd to develop such a national security technology in Russia. Therefore, we suggest you consider building such a facility in the United States. It would be called the Versatile Advanced Test Reactor. It would be a highly neutron rich fast reactor capable also of producing thermal neutrons. We like versatile because it should be designed in such a way that it could be used to test all new reactor concepts, whether they involve molten salt, a liquid metal reactor, a liquid bismuth reactor, a gas reactor, or even light water reactor.    The Versatile Advanced Test Reactor would be a user facility in the same way that the DOE Office of Science managers other highly successful facilities. It would contribute to the public good by providing the development of future nuclear energy options. This is an excellent example of what the government should do because industry cannot, or will not, do it. The U.S. has a great opportunity to lead the world, and give nuclear power its best chance to become economically viable. This Committee could start by enacting a law calling for a study to be done, with industry participation, to determine a design for such a reactor, what its capabilities would be, and what it might cost. We believe that if the U.S. were to build such a test facility, it would be key to the development of nuclear reactors that really could spark a true renaissance of nuclear power in the United States.    Thank you for inviting me to share our views, and for your interest in finding ways to sustain an extremely important future energy source for our nation. Thank you.</t>
   </si>
   <si>
@@ -232,6 +265,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. Years ago I used to believe that the environmentalist community was being, how do you say, alarmist when it came to nuclear energy. And I have seen a lot of alarmism come out of the environmental community that has not been accurate, but let me just say that in the case of nuclear energy, as time has gone on, and more information has been available, I think the environmental community over the years has been on target on this issue. The fact is that nuclear energy, as we are now using it, is very dangerous, and as now there are--there's leftover waste to deal with with the way we produce nuclear energy today.    So that's a big concession for me. In the number of debates that I had with environmental activities, they were right about that. But we are capable of technologically meeting those challenges that were brought up. And--whether it's leftover waste, or whether it's a safer way of producing nuclear energy that wouldn't have the same type of dangers associated with our current plants, we can do that.    I especially want to acknowledge our friends at General Atomics, who have been in the forefront, and spent a lot of their own money over the years trying to develop a new and next generation of nuclear energy that is safe, and won't have the massive leftover waste problem for decades, if not centuries to come.    I--but the government has to play a role in this as well. If we're going to have the benefits of nuclear energy, and--because private companies can't make this jump on their own, but once that jump is made, our private companies will be able to then, on their own, to build these next generation of nuclear power plants.    So I would like to go on the record, absolutely, saying this idea of having an open access facility is perhaps the most important thing we can do to provide America's long term energy interests, because it doesn't mean that just General Atomics, or any other company that is investing in this, and looking down this road. It will be available to all of those approaches. And, after his facility is available, we will know which is the best one to go with, which is the best way to go.    So this is a--what is not a good use of our money, however, is something that is aimed at fusion, rather than fission. And we can do these fission reactors--with all due respect to the last witness, boy, now we know it's possible. We've spent I don't know how many billions of dollars to find that it's possible? No. After spending billions of dollars, we should actually be at a point where we can--not only is it possible, but we'll have it ready within two or three years, whatever that is. But we're nowhere near that with fusion. But we do know that if we focus on this next generation of fission reactors, especially modular fission reactors, we actually can do it, and do the job, rather than just know that it's possible.    Let me note that we have spent--I would like to ask my friend from General Atomics, the--in what--the actual configuration of the next generation of nuclear reactor that you're working on, the people in Japan were sold a bill of goods that what they were given was totally safe. And now what happens, we, you know, we've seen this catastrophe in Japan. Would the model you're working on, and perhaps the other models that people are working on, would that protect us from that type of situation they have in Japan?</t>
   </si>
   <si>
@@ -262,6 +301,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. Thank you for holding this hearing, and I would like to say, I do agree with Mr. Rohrabacher, except for I do believe in global climate change, but I think together we need to work to bring, you know, nuclear energy--it's something that we have to, first of all, maintain America's leadership on the innovation when it comes to nuclear energy and nuclear technologies, and we need to transition to advanced nuclear technologies, like fast reactors. And I hope to get language in the Competes bill supporting advanced nuclear reactor test facilities. So I think it's very important that we do move ahead, and research is critical, and that's what we're here to talk about.    For Dr. Peters, Illinois has been a leader in nuclear reactors since the first reactor was developed by Enrico Fermi at Met Lab, now renamed Argonne. Thank you for your leadership in keeping Argonne, and Illinois, a leader in nuclear energy innovation. Moving forward, I want to ask, what are Argonne's research and development priorities, and how do these priorities compliment work at other national labs, and fit into the DOE's strategic direction?</t>
   </si>
   <si>
@@ -283,6 +328,9 @@
     <t>412422</t>
   </si>
   <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman. Thank you to all of our witnesses. Dr. Peters, it's always so good to see you. Certainly love being able to tell the great story of all the good things that are happening in Illinois. Good news for the rest of the Committee is having you here means they don't have to listen to me, and they can be much better informed hearing from you, so----</t>
   </si>
   <si>
@@ -328,6 +376,12 @@
     <t>412514</t>
   </si>
   <si>
+    <t>Swalwell</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Chair. I represent Lawrence Livermore National Laboratory and Sandia National Laboratory in Livermore, California, in the 15th District, and appreciate our witnesses here, and also Dr. Peters, what--the work you do at Argonne, is that correct?    My question is for Mr. Gilliland. And--in your testimony, you're pretty forceful on the potential power of fusion energy, and--for example, you write that the game changing nature of fusion energy bears repeating, energy production that is safe, clean, and abundant that would change the landscape of energy forever, and greatly enhance energy security.    At the two national laboratories I work--that I represent, they do a lot of work in fusion energy. For example, at Lawrence Livermore, they have the National Ignition Facility, the largest inertial fusion facility in the world, which is an amazing research tool, which has produced a wealth of information, but its primary goal right now is to assist in the maintenance of the nuclear weapon stockpile. However, we have long term hopes that it can be a sustainable energy source in the future.    So, keeping that in mind--and Representative Lofgren, who's on this Committee as well, she has worked with me on supporting fusion--but keeping that in mind, do you think, Mr. Gilliland, that the federal government is spending enough to support fusion energy research, and if not, do you have a dollar amount in mind as to how much more we should spend? And would it be helpful to have an actually dedicated funding source for research into all different types of fusion, including inertial, for energy applications?</t>
   </si>
   <si>
@@ -350,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. I thank the gentleman. The gentleman from Illinois, Mr. Foster, is recognized.</t>
+  </si>
+  <si>
+    <t>Foster</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Foster. Thank you, Mr. Chairman, and I appreciate the opportunity to attend this, despite not actually being formally on this Subcommittee. The--let's see. First question--first I would like to say that I'm a big fan of turning up research in this field. You know, the payoff if one of these comes up with a home run, and a really viable zero carbon energy source for our world, is enormous.    But ultimately, you know, the thing that I struggle with is the business of design studies that look at projected costs of electricity, which is ultimately the endpoint on this. And so the difficulty you get into there is you're comparing technologies with different levels of maturity. And, you know, ultimately we're resource constrained. You know, we've now decided to make what's--looks like a--between a $3 and $4 billion bet on tokamak fusion, you know, leveraging that to roughly 10 times that amount offshore. And, you know, we may or may not decide to do the same sort of leveraging in making a U.S. investment into offshore fission technologies that are being developed.    And so--but ultimately what we're looking for is the cheapest way of making zero carbon electricity. And--so there is certainly a role in doing design studies, just say pretend the technology works, and what would the cost of electricity be, if it all works according to your dreams? You know, there are big dangers there, because you can lose that bet, and--or find that, to make it work, you have to add a lot of costs to things.    But how do we, you know, how should Congress think about and handle that? Is this best left to separate--to committees? You know, the problem is that committees--all--knowledgeable people on committees are always composed of advocates for their technology, and you can balance the committee in different ways and get whatever answer you want, depending on how you choose to balance those committees.    And so if--so I guess my question is do you think that we're putting enough effort into the sort of design studies that I'm talking about, where you say, just pretend the technology works, does it ever have a chance of being cheaper? You know, this is something that's often talked about, for example, in terms of laser driven fusion, that if you just look at the wall power efficiency, you know, everything you'll have to do to get the compression, I guess--I--sorry I missed your presentation, Mr. Gilliland, but, from what I understand, your technology, you anticipate a higher efficiency, wall plug efficiency, in terms of getting the fusion to happen. And that's a, you know, that's a real argument when you look at the final thing.    But I--my question is, are we putting enough effort into that, and the right kind of effort, into these design--these studies of what the theoretical cost of electricity should be, or are--is--are things just so far away, and such a big spectrum in their R&amp;D readiness to make those--to be able to make those sensible comparisons? So anyone wants to comment on--yeah, Dr. Parmentola.</t>
@@ -863,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,7 +928,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,3677 +950,4299 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G84" t="s">
+        <v>104</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s">
+        <v>104</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G90" t="s">
+        <v>120</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>130</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s">
+        <v>130</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>130</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s">
+        <v>130</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
+        <v>130</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
       <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
       <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G138" t="s">
+        <v>41</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
       <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G142" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
       <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
       <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
       <c r="H149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
       <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G152" t="s">
+        <v>41</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
       <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>166</v>
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95224.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grayson</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -263,6 +275,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -920,7 +935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,7 +943,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,4296 +968,4612 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G76" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G94" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I94" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G96" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>130</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>135</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" t="s">
-        <v>41</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>135</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>45</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s">
-        <v>41</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>135</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>41</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>135</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>130</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>135</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s">
-        <v>130</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>135</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s">
-        <v>31</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>130</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>135</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>130</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>130</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>135</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>27</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>32</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>32</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>27</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>27</v>
-      </c>
-      <c r="G131" t="s">
-        <v>28</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>41</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>41</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I139" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s">
-        <v>41</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I141" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" t="s">
-        <v>41</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I145" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H151" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I151" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>41</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>45</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I153" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>185</v>
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
